--- a/Baza de date.xlsx
+++ b/Baza de date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\Desktop\Proiect eco. avansata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB464A2-4C20-4B15-BF04-8290B9EDF8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A96D7-3304-409D-AFC1-7386CB727591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="8" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="220">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -704,9 +704,6 @@
     <t>ExpectedYearsOfSchooling</t>
   </si>
   <si>
-    <t>Nr,Nasteri</t>
-  </si>
-  <si>
     <t>Natalitate_(pop/nr,nasteri)</t>
   </si>
   <si>
@@ -723,6 +720,9 @@
   </si>
   <si>
     <t>St, Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>NrNasteri</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -834,13 +834,13 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
@@ -871,7 +871,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -901,7 +901,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -919,7 +919,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1033,7 +1033,7 @@
     <tableColumn id="1" xr3:uid="{36E635E7-27F2-4931-8242-92F584F60248}" name="Tara" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{6FBD3632-EE82-410E-8034-8A1F057BA28B}" name="AccesElectricitate%" dataDxfId="3" dataCellStyle="Virgulă"/>
     <tableColumn id="3" xr3:uid="{43E0EF9F-BA47-4B14-B4E7-3F29FB712DBB}" name="Populatie" dataDxfId="2" dataCellStyle="Virgulă"/>
-    <tableColumn id="4" xr3:uid="{67DEF0CD-7D3D-4DE3-9C76-FD4C162D91D9}" name="Nr,Nasteri" dataDxfId="1" dataCellStyle="Virgulă"/>
+    <tableColumn id="4" xr3:uid="{67DEF0CD-7D3D-4DE3-9C76-FD4C162D91D9}" name="NrNasteri" dataDxfId="1" dataCellStyle="Virgulă"/>
     <tableColumn id="5" xr3:uid="{F527EAA3-434C-4476-B69B-2E2304968591}" name="Natalitate_(pop/nr,nasteri)" dataDxfId="0" dataCellStyle="Normal 2">
       <calculatedColumnFormula>D2/C2*100</calculatedColumnFormula>
     </tableColumn>
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3455F28D-BE3D-4585-A58C-7126B27F87BF}">
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,10 @@
         <v>207</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="F1" t="s">
         <v>210</v>
@@ -1819,12 +1819,9 @@
       <c r="C19" s="5">
         <v>13413417</v>
       </c>
-      <c r="D19" s="8">
-        <v>466510</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>3.4779355625788719</v>
+        <v>3.48</v>
       </c>
       <c r="F19">
         <v>0.52500000000000002</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2">
         <v>52.6</v>
@@ -2528,9 +2525,7 @@
         <f t="shared" si="1"/>
         <v>1.1249665188536055</v>
       </c>
-      <c r="F45">
-        <v>0.72</v>
-      </c>
+      <c r="F45"/>
       <c r="G45" t="s">
         <v>187</v>
       </c>
@@ -2569,9 +2564,7 @@
       <c r="A47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="2">
-        <v>86.3</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="5">
         <v>17682454</v>
       </c>
@@ -2588,9 +2581,7 @@
       <c r="G47" t="s">
         <v>179</v>
       </c>
-      <c r="H47">
-        <v>14.6</v>
-      </c>
+      <c r="H47"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -2866,9 +2857,7 @@
       <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="2">
-        <v>94.9</v>
-      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="5">
         <v>2576010</v>
       </c>
@@ -4808,7 +4797,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B130" s="3">
         <v>100</v>
@@ -5650,15 +5639,12 @@
       <c r="B161" s="3">
         <v>100</v>
       </c>
-      <c r="C161" s="5">
-        <v>62830412</v>
-      </c>
+      <c r="C161" s="5"/>
       <c r="D161" s="8">
         <v>2262827</v>
       </c>
       <c r="E161" s="10">
-        <f t="shared" si="4"/>
-        <v>3.6014836254774205</v>
+        <v>3.6</v>
       </c>
       <c r="F161">
         <v>0.54900000000000004</v>
@@ -5684,7 +5670,7 @@
         <v>612870</v>
       </c>
       <c r="E162" s="10">
-        <f t="shared" ref="E162:E193" si="5">D162/C162*100</f>
+        <f t="shared" ref="E162:E181" si="5">D162/C162*100</f>
         <v>0.85444416083955277</v>
       </c>
       <c r="F162">
@@ -5753,7 +5739,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B165" s="3">
         <v>100</v>
@@ -5771,16 +5757,14 @@
       <c r="F165">
         <v>0.81</v>
       </c>
-      <c r="G165" t="s">
-        <v>179</v>
-      </c>
+      <c r="G165"/>
       <c r="H165">
         <v>14.5</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B166" s="3">
         <v>100</v>
@@ -5807,7 +5791,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B167" s="3">
         <v>100</v>

--- a/Baza de date.xlsx
+++ b/Baza de date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\Desktop\Proiect eco. avansata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A96D7-3304-409D-AFC1-7386CB727591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF66DF9-4A82-4B03-A240-1FB1BF410AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,9 +704,6 @@
     <t>ExpectedYearsOfSchooling</t>
   </si>
   <si>
-    <t>Natalitate_(pop/nr,nasteri)</t>
-  </si>
-  <si>
     <t>Korea, Dem, People's Rep,</t>
   </si>
   <si>
@@ -723,16 +720,17 @@
   </si>
   <si>
     <t>NrNasteri</t>
+  </si>
+  <si>
+    <t>Natalitate_(pop/nr.nasteri)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -831,18 +829,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,9 +848,6 @@
     <cellStyle name="Virgulă" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -871,7 +865,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -901,7 +895,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -919,7 +913,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1031,10 +1028,10 @@
   <autoFilter ref="A1:E181" xr:uid="{14C27845-47BD-420C-B242-3EB4C11112C8}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36E635E7-27F2-4931-8242-92F584F60248}" name="Tara" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{6FBD3632-EE82-410E-8034-8A1F057BA28B}" name="AccesElectricitate%" dataDxfId="3" dataCellStyle="Virgulă"/>
-    <tableColumn id="3" xr3:uid="{43E0EF9F-BA47-4B14-B4E7-3F29FB712DBB}" name="Populatie" dataDxfId="2" dataCellStyle="Virgulă"/>
-    <tableColumn id="4" xr3:uid="{67DEF0CD-7D3D-4DE3-9C76-FD4C162D91D9}" name="NrNasteri" dataDxfId="1" dataCellStyle="Virgulă"/>
-    <tableColumn id="5" xr3:uid="{F527EAA3-434C-4476-B69B-2E2304968591}" name="Natalitate_(pop/nr,nasteri)" dataDxfId="0" dataCellStyle="Normal 2">
+    <tableColumn id="2" xr3:uid="{6FBD3632-EE82-410E-8034-8A1F057BA28B}" name="AccesElectricitate%" dataDxfId="2" dataCellStyle="Virgulă"/>
+    <tableColumn id="3" xr3:uid="{43E0EF9F-BA47-4B14-B4E7-3F29FB712DBB}" name="Populatie" dataDxfId="1" dataCellStyle="Virgulă"/>
+    <tableColumn id="4" xr3:uid="{67DEF0CD-7D3D-4DE3-9C76-FD4C162D91D9}" name="NrNasteri" dataDxfId="0" dataCellStyle="Virgulă"/>
+    <tableColumn id="5" xr3:uid="{F527EAA3-434C-4476-B69B-2E2304968591}" name="Natalitate_(pop/nr.nasteri)" dataDxfId="3" dataCellStyle="Normal 2">
       <calculatedColumnFormula>D2/C2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1307,15 +1304,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3455F28D-BE3D-4585-A58C-7126B27F87BF}">
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1325,20 +1322,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="F1" t="s">
         <v>210</v>
@@ -1354,16 +1351,16 @@
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>7.7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>40000412</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>1453685</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="5">
         <f t="shared" ref="E2:E33" si="0">D2/C2*100</f>
         <v>3.6341750679967997</v>
       </c>
@@ -1381,16 +1378,16 @@
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>2811666</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>29955</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
         <v>1.0653825881167962</v>
       </c>
@@ -1408,16 +1405,16 @@
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>11.3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>44761099</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>957511</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>2.1391588262835102</v>
       </c>
@@ -1435,16 +1432,16 @@
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>14.2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>78364</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>535</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>0.68271144913480675</v>
       </c>
@@ -1462,16 +1459,16 @@
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>15.7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>92349</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>1121</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>1.2138734582940802</v>
       </c>
@@ -1489,16 +1486,16 @@
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>18.600000000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>45312281</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>529339</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>1.1682020598345071</v>
       </c>
@@ -1516,16 +1513,16 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>19</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>2962300</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>35635</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>1.2029504101542721</v>
       </c>
@@ -1543,16 +1540,16 @@
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>20.9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>25685412</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>304162</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>1.1841819006056824</v>
       </c>
@@ -1570,16 +1567,16 @@
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>27.5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>8955797</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>85345</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>0.95295817893147872</v>
       </c>
@@ -1597,16 +1594,16 @@
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>29.8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>10137750</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>135569</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>1.3372691179009148</v>
       </c>
@@ -1624,16 +1621,16 @@
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>31.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>396373</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>4369</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>1.1022446029371324</v>
       </c>
@@ -1651,16 +1648,16 @@
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>35.1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>1504365</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>19586</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>1.3019446743310301</v>
       </c>
@@ -1678,16 +1675,16 @@
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>35.799999999999997</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>167658854</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>3422642</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>2.0414323003782431</v>
       </c>
@@ -1705,16 +1702,16 @@
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>42</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>282147</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>3184</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>1.1284897588845533</v>
       </c>
@@ -1732,16 +1729,16 @@
       <c r="A16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>42.7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>9302585</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>79787</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>0.85768633127243665</v>
       </c>
@@ -1759,16 +1756,16 @@
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>45.2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>11586195</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>117668</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>1.0155879475531009</v>
       </c>
@@ -1786,16 +1783,16 @@
       <c r="A18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>46.7</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>395346</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>6539</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>1.6539942227820694</v>
       </c>
@@ -1813,14 +1810,14 @@
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>46.8</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>13413417</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10">
+      <c r="D19" s="9"/>
+      <c r="E19" s="5">
         <v>3.48</v>
       </c>
       <c r="F19">
@@ -1837,16 +1834,16 @@
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>47.7</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>775442</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>9997</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>1.2892002238723206</v>
       </c>
@@ -1864,16 +1861,16 @@
       <c r="A21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>48.7</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>11937360</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>260326</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>2.1807669367431322</v>
       </c>
@@ -1891,16 +1888,16 @@
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>49</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>2401441</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>61049</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>2.5421819649119008</v>
       </c>
@@ -1918,16 +1915,16 @@
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>50.4</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>209550294</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>2672684</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>1.2754379624015226</v>
       </c>
@@ -1945,16 +1942,16 @@
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>52.5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <v>451721</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>6351</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>1.4059563314523789</v>
       </c>
@@ -1970,18 +1967,18 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="2">
+        <v>213</v>
+      </c>
+      <c r="B25" s="6">
         <v>52.6</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <v>6877743</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <v>59000</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>0.85783955579613824</v>
       </c>
@@ -1999,16 +1996,16 @@
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>53.4</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <v>21995243</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>713006</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>3.2416372940276226</v>
       </c>
@@ -2026,16 +2023,16 @@
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <v>54.2</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <v>12965481</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>454572</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>3.5060172468726765</v>
       </c>
@@ -2053,16 +2050,16 @@
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>55.2</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
         <v>516649</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <v>6494</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>1.256946205257341</v>
       </c>
@@ -2080,16 +2077,16 @@
       <c r="A29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="6">
         <v>55.7</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <v>16974305</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>371827</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>2.1905285665598679</v>
       </c>
@@ -2107,16 +2104,16 @@
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>59.5</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <v>26915758</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>936082</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>3.4778214308510282</v>
       </c>
@@ -2134,16 +2131,16 @@
       <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="6">
         <v>61.8</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <v>38239864</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>369789</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>0.96702488272447829</v>
       </c>
@@ -2158,19 +2155,19 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="6">
         <v>63.7</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <v>5112100</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>231200</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>4.5226032354609655</v>
       </c>
@@ -2188,16 +2185,16 @@
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>65.400000000000006</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="7">
         <v>17828273</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <v>771674</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>4.3283721311649197</v>
       </c>
@@ -2215,16 +2212,16 @@
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>68</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="7">
         <v>19456334</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>176463</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="5">
         <f t="shared" ref="E34:E65" si="1">D34/C34*100</f>
         <v>0.90696942188595242</v>
       </c>
@@ -2242,16 +2239,16 @@
       <c r="A35" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>70</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="7">
         <v>1412360000</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <v>10461124</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>0.74068396159619365</v>
       </c>
@@ -2269,16 +2266,16 @@
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>70.2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="7">
         <v>51188173</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <v>713944</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>1.394744055428585</v>
       </c>
@@ -2293,19 +2290,19 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="6">
         <v>70.5</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="7">
         <v>818174</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <v>24134</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>2.9497392975088426</v>
       </c>
@@ -2323,16 +2320,16 @@
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>72.5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="7">
         <v>105041115</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>4342912</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>4.1344877194039693</v>
       </c>
@@ -2350,16 +2347,16 @@
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="6">
         <v>73.7</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="7">
         <v>5059988</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>53349</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="5">
         <f t="shared" si="1"/>
         <v>1.054330563629795</v>
       </c>
@@ -2374,19 +2371,19 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="6">
         <v>74.900000000000006</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="7">
         <v>3878981</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>35785</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="5">
         <f t="shared" si="1"/>
         <v>0.92253609904250633</v>
       </c>
@@ -2404,16 +2401,16 @@
       <c r="A41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="6">
         <v>76.3</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="7">
         <v>11122168</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="8">
         <v>98036</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="5">
         <f t="shared" si="1"/>
         <v>0.88144685460604444</v>
       </c>
@@ -2431,16 +2428,16 @@
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="6">
         <v>76.5</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="7">
         <v>1317309</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="8">
         <v>14802</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="5">
         <f t="shared" si="1"/>
         <v>1.1236543590000525</v>
       </c>
@@ -2458,16 +2455,16 @@
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>78.5</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="7">
         <v>10505772</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>111795</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="5">
         <f t="shared" si="1"/>
         <v>1.0641293186259897</v>
       </c>
@@ -2485,16 +2482,16 @@
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="6">
         <v>82.5</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="7">
         <v>5856733</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>63475</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="5">
         <f t="shared" si="1"/>
         <v>1.0837953514356895</v>
       </c>
@@ -2512,16 +2509,16 @@
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="6">
         <v>82.9</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="7">
         <v>67202</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>756</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="5">
         <f t="shared" si="1"/>
         <v>1.1249665188536055</v>
       </c>
@@ -2537,16 +2534,16 @@
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="6">
         <v>86.3</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="7">
         <v>11123476</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <v>206574</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="5">
         <f t="shared" si="1"/>
         <v>1.8570993455642824</v>
       </c>
@@ -2564,14 +2561,14 @@
       <c r="A47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="5">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7">
         <v>17682454</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="8">
         <v>280840</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="5">
         <f t="shared" si="1"/>
         <v>1.5882410891610406</v>
       </c>
@@ -2587,16 +2584,16 @@
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="6">
         <v>87.9</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="7">
         <v>110957008</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>2347231</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="5">
         <f t="shared" si="1"/>
         <v>2.1154418655557112</v>
       </c>
@@ -2614,16 +2611,16 @@
       <c r="A49" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="6">
         <v>88.8</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="7">
         <v>6255782</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="8">
         <v>101029</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="5">
         <f t="shared" si="1"/>
         <v>1.6149699589915376</v>
       </c>
@@ -2641,16 +2638,16 @@
       <c r="A50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="6">
         <v>89.3</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="7">
         <v>3350183</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="8">
         <v>96545</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="5">
         <f t="shared" si="1"/>
         <v>2.8817828757414148</v>
       </c>
@@ -2668,16 +2665,16 @@
       <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="6">
         <v>89.9</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="7">
         <v>1330932</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <v>13118</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="5">
         <f t="shared" si="1"/>
         <v>0.98562511082459503</v>
       </c>
@@ -2695,16 +2692,16 @@
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="6">
         <v>91.8</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="7">
         <v>1206593</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="8">
         <v>30113</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="5">
         <f t="shared" si="1"/>
         <v>2.4957048482794115</v>
       </c>
@@ -2722,16 +2719,16 @@
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="6">
         <v>92.1</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="7">
         <v>122138588</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <v>4015397</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="5">
         <f t="shared" si="1"/>
         <v>3.2875744396193611</v>
       </c>
@@ -2749,16 +2746,16 @@
       <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="6">
         <v>92.8</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="7">
         <v>916711</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="8">
         <v>17005</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="5">
         <f t="shared" si="1"/>
         <v>1.8550011944876847</v>
       </c>
@@ -2776,16 +2773,16 @@
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="6">
         <v>92.9</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="7">
         <v>5541017</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <v>49488</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="5">
         <f t="shared" si="1"/>
         <v>0.89312124471013166</v>
       </c>
@@ -2803,16 +2800,16 @@
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="6">
         <v>93.7</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="7">
         <v>67842811</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="8">
         <v>702274</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="5">
         <f t="shared" si="1"/>
         <v>1.0351487352138165</v>
       </c>
@@ -2830,16 +2827,16 @@
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="6">
         <v>94.1</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="7">
         <v>2376722</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="9">
         <v>68779</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="5">
         <f t="shared" si="1"/>
         <v>2.8938596941501782</v>
       </c>
@@ -2857,14 +2854,14 @@
       <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="5">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7">
         <v>2576010</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="8">
         <v>80297</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="5">
         <f t="shared" si="1"/>
         <v>3.1171074646449353</v>
       </c>
@@ -2882,16 +2879,16 @@
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="6">
         <v>95.3</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="7">
         <v>3708610</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="9">
         <v>48797</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="5">
         <f t="shared" si="1"/>
         <v>1.3157759915440017</v>
       </c>
@@ -2909,16 +2906,16 @@
       <c r="A60" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="6">
         <v>95.5</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="7">
         <v>83196078</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="8">
         <v>795669</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="5">
         <f t="shared" si="1"/>
         <v>0.95637801580021586</v>
       </c>
@@ -2936,16 +2933,16 @@
       <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="6">
         <v>95.6</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="7">
         <v>32518665</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="9">
         <v>879105</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="5">
         <f t="shared" si="1"/>
         <v>2.7033858862287241</v>
       </c>
@@ -2963,16 +2960,16 @@
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="6">
         <v>97.5</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="7">
         <v>10569207</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="9">
         <v>86163</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="5">
         <f t="shared" si="1"/>
         <v>0.81522672419983822</v>
       </c>
@@ -2990,16 +2987,16 @@
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="6">
         <v>97.7</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="7">
         <v>116688</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>1417</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="5">
         <f t="shared" si="1"/>
         <v>1.214349376114082</v>
       </c>
@@ -3017,16 +3014,16 @@
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="6">
         <v>97.7</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="7">
         <v>17598650</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
         <v>376735</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="5">
         <f t="shared" si="1"/>
         <v>2.1407039744525855</v>
       </c>
@@ -3044,16 +3041,16 @@
       <c r="A65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="6">
         <v>97.9</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="7">
         <v>13710513</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="8">
         <v>479631</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="5">
         <f t="shared" si="1"/>
         <v>3.4982717276880888</v>
       </c>
@@ -3071,16 +3068,16 @@
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="6">
         <v>97.9</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="7">
         <v>2058841</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="9">
         <v>63759</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="5">
         <f t="shared" ref="E66:E97" si="2">D66/C66*100</f>
         <v>3.0968394353910766</v>
       </c>
@@ -3098,16 +3095,16 @@
       <c r="A67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="6">
         <v>98.1</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="7">
         <v>815482</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="8">
         <v>17093</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="5">
         <f t="shared" si="2"/>
         <v>2.096060979886742</v>
       </c>
@@ -3125,16 +3122,16 @@
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="6">
         <v>98.3</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="7">
         <v>10289877</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="8">
         <v>231824</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="5">
         <f t="shared" si="2"/>
         <v>2.2529326638209572</v>
       </c>
@@ -3152,16 +3149,16 @@
       <c r="A69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="6">
         <v>98.6</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="7">
         <v>7413100</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="9">
         <v>47908</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="5">
         <f t="shared" si="2"/>
         <v>0.64626134815394365</v>
       </c>
@@ -3179,16 +3176,16 @@
       <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="6">
         <v>98.8</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="7">
         <v>9709891</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="8">
         <v>93719</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="5">
         <f t="shared" si="2"/>
         <v>0.96519106136206889</v>
       </c>
@@ -3206,16 +3203,16 @@
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="6">
         <v>99</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="7">
         <v>372520</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="9">
         <v>4819</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="5">
         <f t="shared" si="2"/>
         <v>1.2936218189627404</v>
       </c>
@@ -3233,16 +3230,16 @@
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="6">
         <v>99.2</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="7">
         <v>1414203896</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="8">
         <v>23321854</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="5">
         <f t="shared" si="2"/>
         <v>1.649115383288408</v>
       </c>
@@ -3260,16 +3257,16 @@
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="6">
         <v>99.5</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="7">
         <v>276758053</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="9">
         <v>4543453</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="5">
         <f t="shared" si="2"/>
         <v>1.6416696644415258</v>
       </c>
@@ -3287,16 +3284,16 @@
       <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="6">
         <v>99.6</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="7">
         <v>88455488</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="8">
         <v>1210703</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="5">
         <f t="shared" si="2"/>
         <v>1.3687143979127672</v>
       </c>
@@ -3314,16 +3311,16 @@
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="6">
         <v>99.6</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="7">
         <v>43071211</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="9">
         <v>1139167</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="5">
         <f t="shared" si="2"/>
         <v>2.6448455326691418</v>
       </c>
@@ -3341,16 +3338,16 @@
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="6">
         <v>99.6</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="7">
         <v>5033164</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="8">
         <v>60066</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="5">
         <f t="shared" si="2"/>
         <v>1.19340438737939</v>
       </c>
@@ -3368,16 +3365,16 @@
       <c r="A77" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="6">
         <v>99.7</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="7">
         <v>9371400</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="8">
         <v>177692</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="5">
         <f t="shared" si="2"/>
         <v>1.8961094393580469</v>
       </c>
@@ -3395,16 +3392,16 @@
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="6">
         <v>99.8</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="7">
         <v>59133173</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="9">
         <v>407050</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="5">
         <f t="shared" si="2"/>
         <v>0.68836150564759979</v>
       </c>
@@ -3422,16 +3419,16 @@
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="6">
         <v>99.8</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="7">
         <v>2837682</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="8">
         <v>33921</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="5">
         <f t="shared" si="2"/>
         <v>1.1953770718494885</v>
       </c>
@@ -3449,16 +3446,16 @@
       <c r="A80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="6">
         <v>99.8</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="7">
         <v>125681593</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="9">
         <v>810611</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="5">
         <f t="shared" si="2"/>
         <v>0.64497193316128643</v>
       </c>
@@ -3476,16 +3473,16 @@
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="6">
         <v>99.8</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="7">
         <v>11066356</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="9">
         <v>235810</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="5">
         <f t="shared" si="2"/>
         <v>2.1308730714970676</v>
       </c>
@@ -3503,16 +3500,16 @@
       <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="6">
         <v>99.9</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="7">
         <v>19743603</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="8">
         <v>459460</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="5">
         <f t="shared" si="2"/>
         <v>2.3271335024311419</v>
       </c>
@@ -3530,16 +3527,16 @@
       <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="6">
         <v>99.9</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="7">
         <v>53219166</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="9">
         <v>1469426</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="5">
         <f t="shared" si="2"/>
         <v>2.7610842304443479</v>
       </c>
@@ -3557,16 +3554,16 @@
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="6">
         <v>99.9</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="7">
         <v>128377</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="8">
         <v>3455</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="5">
         <f t="shared" si="2"/>
         <v>2.6912920538725782</v>
       </c>
@@ -3584,16 +3581,16 @@
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="3">
-        <v>100</v>
-      </c>
-      <c r="C85" s="5">
+      <c r="B85" s="6">
+        <v>100</v>
+      </c>
+      <c r="C85" s="7">
         <v>26232534</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="9">
         <v>348026</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="5">
         <f t="shared" si="2"/>
         <v>1.3266960789986968</v>
       </c>
@@ -3611,16 +3608,16 @@
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="3">
-        <v>100</v>
-      </c>
-      <c r="C86" s="5">
+      <c r="B86" s="6">
+        <v>100</v>
+      </c>
+      <c r="C86" s="7">
         <v>51769539</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>259300</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="5">
         <f t="shared" si="2"/>
         <v>0.50087368944892485</v>
       </c>
@@ -3638,16 +3635,16 @@
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="3">
-        <v>100</v>
-      </c>
-      <c r="C87" s="5">
+      <c r="B87" s="6">
+        <v>100</v>
+      </c>
+      <c r="C87" s="7">
         <v>4360865</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="8">
         <v>44000</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="5">
         <f t="shared" si="2"/>
         <v>1.0089741370118084</v>
       </c>
@@ -3665,16 +3662,16 @@
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="3">
-        <v>100</v>
-      </c>
-      <c r="C88" s="5">
+      <c r="B88" s="6">
+        <v>100</v>
+      </c>
+      <c r="C88" s="7">
         <v>6851224</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="9">
         <v>153197</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="5">
         <f t="shared" si="2"/>
         <v>2.2360530030838288</v>
       </c>
@@ -3692,16 +3689,16 @@
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="3">
-        <v>100</v>
-      </c>
-      <c r="C89" s="5">
+      <c r="B89" s="6">
+        <v>100</v>
+      </c>
+      <c r="C89" s="7">
         <v>1884490</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="9">
         <v>17471</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="5">
         <f t="shared" si="2"/>
         <v>0.92709433321482204</v>
       </c>
@@ -3719,16 +3716,16 @@
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="3">
-        <v>100</v>
-      </c>
-      <c r="C90" s="5">
+      <c r="B90" s="6">
+        <v>100</v>
+      </c>
+      <c r="C90" s="7">
         <v>5718122</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="8">
         <v>94769</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="5">
         <f t="shared" si="2"/>
         <v>1.6573448415406318</v>
       </c>
@@ -3746,16 +3743,16 @@
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="3">
-        <v>100</v>
-      </c>
-      <c r="C91" s="5">
+      <c r="B91" s="6">
+        <v>100</v>
+      </c>
+      <c r="C91" s="7">
         <v>2261542</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="9">
         <v>56302</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="5">
         <f t="shared" si="2"/>
         <v>2.4895403224879309</v>
       </c>
@@ -3773,16 +3770,16 @@
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="3">
-        <v>100</v>
-      </c>
-      <c r="C92" s="5">
+      <c r="B92" s="6">
+        <v>100</v>
+      </c>
+      <c r="C92" s="7">
         <v>5259323</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="8">
         <v>165796</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="5">
         <f t="shared" si="2"/>
         <v>3.152420948475688</v>
       </c>
@@ -3797,19 +3794,19 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="3">
-        <v>100</v>
-      </c>
-      <c r="C93" s="5">
+      <c r="B93" s="6">
+        <v>100</v>
+      </c>
+      <c r="C93" s="7">
         <v>7135175</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="9">
         <v>129689</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="5">
         <f t="shared" si="2"/>
         <v>1.8176008296923341</v>
       </c>
@@ -3827,16 +3824,16 @@
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="3">
-        <v>100</v>
-      </c>
-      <c r="C94" s="5">
+      <c r="B94" s="6">
+        <v>100</v>
+      </c>
+      <c r="C94" s="7">
         <v>39182</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="8">
         <v>367</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="5">
         <f t="shared" si="2"/>
         <v>0.93665458628962273</v>
       </c>
@@ -3854,16 +3851,16 @@
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="3">
-        <v>100</v>
-      </c>
-      <c r="C95" s="5">
+      <c r="B95" s="6">
+        <v>100</v>
+      </c>
+      <c r="C95" s="7">
         <v>2800839</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="9">
         <v>22978</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="5">
         <f t="shared" si="2"/>
         <v>0.82039703103248718</v>
       </c>
@@ -3881,16 +3878,16 @@
       <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="3">
-        <v>100</v>
-      </c>
-      <c r="C96" s="5">
+      <c r="B96" s="6">
+        <v>100</v>
+      </c>
+      <c r="C96" s="7">
         <v>640064</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="8">
         <v>6581</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="5">
         <f t="shared" si="2"/>
         <v>1.0281784321567844</v>
       </c>
@@ -3908,16 +3905,16 @@
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="3">
-        <v>100</v>
-      </c>
-      <c r="C97" s="5">
+      <c r="B97" s="6">
+        <v>100</v>
+      </c>
+      <c r="C97" s="7">
         <v>29691083</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="8">
         <v>977163</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="5">
         <f t="shared" si="2"/>
         <v>3.2910992165560282</v>
       </c>
@@ -3935,16 +3932,16 @@
       <c r="A98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B98" s="3">
-        <v>100</v>
-      </c>
-      <c r="C98" s="5">
+      <c r="B98" s="6">
+        <v>100</v>
+      </c>
+      <c r="C98" s="7">
         <v>20047258</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="9">
         <v>642826</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="5">
         <f t="shared" ref="E98:E129" si="3">D98/C98*100</f>
         <v>3.2065532353601678</v>
       </c>
@@ -3962,16 +3959,16 @@
       <c r="A99" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B99" s="3">
-        <v>100</v>
-      </c>
-      <c r="C99" s="5">
+      <c r="B99" s="6">
+        <v>100</v>
+      </c>
+      <c r="C99" s="7">
         <v>34282399</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="8">
         <v>424571</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="5">
         <f t="shared" si="3"/>
         <v>1.2384518364657036</v>
       </c>
@@ -3989,16 +3986,16 @@
       <c r="A100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="3">
-        <v>100</v>
-      </c>
-      <c r="C100" s="5">
+      <c r="B100" s="6">
+        <v>100</v>
+      </c>
+      <c r="C100" s="7">
         <v>516154</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="9">
         <v>6036</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="5">
         <f t="shared" si="3"/>
         <v>1.1694184293834786</v>
       </c>
@@ -4016,16 +4013,16 @@
       <c r="A101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B101" s="3">
-        <v>100</v>
-      </c>
-      <c r="C101" s="5">
+      <c r="B101" s="6">
+        <v>100</v>
+      </c>
+      <c r="C101" s="7">
         <v>22388630</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="8">
         <v>911381</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="5">
         <f t="shared" si="3"/>
         <v>4.070731438234497</v>
       </c>
@@ -4043,16 +4040,16 @@
       <c r="A102" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B102" s="3">
-        <v>100</v>
-      </c>
-      <c r="C102" s="5">
+      <c r="B102" s="6">
+        <v>100</v>
+      </c>
+      <c r="C102" s="7">
         <v>518536</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="9">
         <v>4345</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="5">
         <f t="shared" si="3"/>
         <v>0.83793603529938132</v>
       </c>
@@ -4070,16 +4067,16 @@
       <c r="A103" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B103" s="3">
-        <v>100</v>
-      </c>
-      <c r="C103" s="5">
+      <c r="B103" s="6">
+        <v>100</v>
+      </c>
+      <c r="C103" s="7">
         <v>41367</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="8">
         <v>959</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="5">
         <f t="shared" si="3"/>
         <v>2.3182730195566514</v>
       </c>
@@ -4097,16 +4094,16 @@
       <c r="A104" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="3">
-        <v>100</v>
-      </c>
-      <c r="C104" s="5">
+      <c r="B104" s="6">
+        <v>100</v>
+      </c>
+      <c r="C104" s="7">
         <v>4734874</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="8">
         <v>167340</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="5">
         <f t="shared" si="3"/>
         <v>3.5342017548935831</v>
       </c>
@@ -4124,16 +4121,16 @@
       <c r="A105" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="3">
-        <v>100</v>
-      </c>
-      <c r="C105" s="5">
+      <c r="B105" s="6">
+        <v>100</v>
+      </c>
+      <c r="C105" s="7">
         <v>1266334</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="9">
         <v>12954</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="5">
         <f t="shared" si="3"/>
         <v>1.0229528702538193</v>
       </c>
@@ -4151,16 +4148,16 @@
       <c r="A106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="3">
-        <v>100</v>
-      </c>
-      <c r="C106" s="5">
+      <c r="B106" s="6">
+        <v>100</v>
+      </c>
+      <c r="C106" s="7">
         <v>127648148</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="9">
         <v>2087487</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="5">
         <f t="shared" si="3"/>
         <v>1.6353445253275434</v>
       </c>
@@ -4178,16 +4175,16 @@
       <c r="A107" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="3">
-        <v>100</v>
-      </c>
-      <c r="C107" s="5">
+      <c r="B107" s="6">
+        <v>100</v>
+      </c>
+      <c r="C107" s="7">
         <v>2595809</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="9">
         <v>34837</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="5">
         <f t="shared" si="3"/>
         <v>1.342047893354249</v>
       </c>
@@ -4205,16 +4202,16 @@
       <c r="A108" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="3">
-        <v>100</v>
-      </c>
-      <c r="C108" s="5">
+      <c r="B108" s="6">
+        <v>100</v>
+      </c>
+      <c r="C108" s="7">
         <v>3383741</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="9">
         <v>70193</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="5">
         <f t="shared" si="3"/>
         <v>2.0744199984573291</v>
       </c>
@@ -4232,16 +4229,16 @@
       <c r="A109" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="3">
-        <v>100</v>
-      </c>
-      <c r="C109" s="5">
+      <c r="B109" s="6">
+        <v>100</v>
+      </c>
+      <c r="C109" s="7">
         <v>619211</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="8">
         <v>7033</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="5">
         <f t="shared" si="3"/>
         <v>1.1358002361069166</v>
       </c>
@@ -4259,16 +4256,16 @@
       <c r="A110" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="3">
-        <v>100</v>
-      </c>
-      <c r="C110" s="5">
+      <c r="B110" s="6">
+        <v>100</v>
+      </c>
+      <c r="C110" s="7">
         <v>36954442</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="8">
         <v>645134</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="5">
         <f t="shared" si="3"/>
         <v>1.7457549487555517</v>
       </c>
@@ -4286,16 +4283,16 @@
       <c r="A111" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="3">
-        <v>100</v>
-      </c>
-      <c r="C111" s="5">
+      <c r="B111" s="6">
+        <v>100</v>
+      </c>
+      <c r="C111" s="7">
         <v>31707800</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="9">
         <v>1217662</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="5">
         <f t="shared" si="3"/>
         <v>3.8402601252688613</v>
       </c>
@@ -4310,19 +4307,19 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="3">
-        <v>100</v>
-      </c>
-      <c r="C112" s="5">
+      <c r="B112" s="6">
+        <v>100</v>
+      </c>
+      <c r="C112" s="7">
         <v>53387102</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="8">
         <v>918313</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="5">
         <f t="shared" si="3"/>
         <v>1.7201027319295212</v>
       </c>
@@ -4340,16 +4337,16 @@
       <c r="A113" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B113" s="3">
-        <v>100</v>
-      </c>
-      <c r="C113" s="5">
+      <c r="B113" s="6">
+        <v>100</v>
+      </c>
+      <c r="C113" s="7">
         <v>2810548</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="9">
         <v>75946</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="5">
         <f t="shared" si="3"/>
         <v>2.7021776536106126</v>
       </c>
@@ -4367,16 +4364,16 @@
       <c r="A114" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="3">
-        <v>100</v>
-      </c>
-      <c r="C114" s="5">
+      <c r="B114" s="6">
+        <v>100</v>
+      </c>
+      <c r="C114" s="7">
         <v>11709</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="8">
         <v>325</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="5">
         <f t="shared" si="3"/>
         <v>2.7756426680331368</v>
       </c>
@@ -4394,16 +4391,16 @@
       <c r="A115" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="3">
-        <v>100</v>
-      </c>
-      <c r="C115" s="5">
+      <c r="B115" s="6">
+        <v>100</v>
+      </c>
+      <c r="C115" s="7">
         <v>29475010</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="9">
         <v>579915</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="5">
         <f t="shared" si="3"/>
         <v>1.9674802485223926</v>
       </c>
@@ -4421,16 +4418,16 @@
       <c r="A116" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B116" s="3">
-        <v>100</v>
-      </c>
-      <c r="C116" s="5">
+      <c r="B116" s="6">
+        <v>100</v>
+      </c>
+      <c r="C116" s="7">
         <v>17533044</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="8">
         <v>182048</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="5">
         <f t="shared" si="3"/>
         <v>1.0383137120969981</v>
       </c>
@@ -4448,16 +4445,16 @@
       <c r="A117" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B117" s="3">
-        <v>100</v>
-      </c>
-      <c r="C117" s="5">
+      <c r="B117" s="6">
+        <v>100</v>
+      </c>
+      <c r="C117" s="7">
         <v>5111300</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="8">
         <v>58853</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="5">
         <f t="shared" si="3"/>
         <v>1.1514291863126798</v>
       </c>
@@ -4475,16 +4472,16 @@
       <c r="A118" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B118" s="3">
-        <v>100</v>
-      </c>
-      <c r="C118" s="5">
+      <c r="B118" s="6">
+        <v>100</v>
+      </c>
+      <c r="C118" s="7">
         <v>6644741</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="9">
         <v>133188</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="5">
         <f t="shared" si="3"/>
         <v>2.0044122111004778</v>
       </c>
@@ -4499,19 +4496,19 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B119" s="3">
-        <v>100</v>
-      </c>
-      <c r="C119" s="5">
+      <c r="B119" s="6">
+        <v>100</v>
+      </c>
+      <c r="C119" s="7">
         <v>24502140</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="8">
         <v>1027422</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="5">
         <f t="shared" si="3"/>
         <v>4.1931929211081149</v>
       </c>
@@ -4529,16 +4526,16 @@
       <c r="A120" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B120" s="3">
-        <v>100</v>
-      </c>
-      <c r="C120" s="5">
+      <c r="B120" s="6">
+        <v>100</v>
+      </c>
+      <c r="C120" s="7">
         <v>218529286</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="9">
         <v>7330875</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="5">
         <f t="shared" si="3"/>
         <v>3.354641903694318</v>
       </c>
@@ -4556,16 +4553,16 @@
       <c r="A121" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B121" s="3">
-        <v>100</v>
-      </c>
-      <c r="C121" s="5">
+      <c r="B121" s="6">
+        <v>100</v>
+      </c>
+      <c r="C121" s="7">
         <v>5408320</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="8">
         <v>56033</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E121" s="5">
         <f t="shared" si="3"/>
         <v>1.0360518608366369</v>
       </c>
@@ -4580,19 +4577,19 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B122" s="3">
-        <v>100</v>
-      </c>
-      <c r="C122" s="5">
+      <c r="B122" s="6">
+        <v>100</v>
+      </c>
+      <c r="C122" s="7">
         <v>4500424</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="9">
         <v>82526</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="5">
         <f t="shared" si="3"/>
         <v>1.8337383322104761</v>
       </c>
@@ -4610,16 +4607,16 @@
       <c r="A123" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B123" s="3">
-        <v>100</v>
-      </c>
-      <c r="C123" s="5">
+      <c r="B123" s="6">
+        <v>100</v>
+      </c>
+      <c r="C123" s="7">
         <v>239477801</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="8">
         <v>6797293</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="5">
         <f t="shared" si="3"/>
         <v>2.838381249375177</v>
       </c>
@@ -4637,16 +4634,16 @@
       <c r="A124" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B124" s="3">
-        <v>100</v>
-      </c>
-      <c r="C124" s="5">
+      <c r="B124" s="6">
+        <v>100</v>
+      </c>
+      <c r="C124" s="7">
         <v>17783</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="9">
         <v>202</v>
       </c>
-      <c r="E124" s="10">
+      <c r="E124" s="5">
         <f t="shared" si="3"/>
         <v>1.1359163245796546</v>
       </c>
@@ -4664,16 +4661,16 @@
       <c r="A125" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B125" s="3">
-        <v>100</v>
-      </c>
-      <c r="C125" s="5">
+      <c r="B125" s="6">
+        <v>100</v>
+      </c>
+      <c r="C125" s="7">
         <v>4345405</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="9">
         <v>71269</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="5">
         <f t="shared" si="3"/>
         <v>1.640100289846401</v>
       </c>
@@ -4691,16 +4688,16 @@
       <c r="A126" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B126" s="3">
-        <v>100</v>
-      </c>
-      <c r="C126" s="5">
+      <c r="B126" s="6">
+        <v>100</v>
+      </c>
+      <c r="C126" s="7">
         <v>10012896</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="8">
         <v>256149</v>
       </c>
-      <c r="E126" s="10">
+      <c r="E126" s="5">
         <f t="shared" si="3"/>
         <v>2.5581909569419277</v>
       </c>
@@ -4718,16 +4715,16 @@
       <c r="A127" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B127" s="3">
-        <v>100</v>
-      </c>
-      <c r="C127" s="5">
+      <c r="B127" s="6">
+        <v>100</v>
+      </c>
+      <c r="C127" s="7">
         <v>6684182</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="9">
         <v>138291</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="5">
         <f t="shared" si="3"/>
         <v>2.0689293020447379</v>
       </c>
@@ -4745,16 +4742,16 @@
       <c r="A128" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B128" s="3">
-        <v>100</v>
-      </c>
-      <c r="C128" s="5">
+      <c r="B128" s="6">
+        <v>100</v>
+      </c>
+      <c r="C128" s="7">
         <v>33155882</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="8">
         <v>543689</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="5">
         <f t="shared" si="3"/>
         <v>1.6397965223787441</v>
       </c>
@@ -4772,16 +4769,16 @@
       <c r="A129" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B129" s="3">
-        <v>100</v>
-      </c>
-      <c r="C129" s="5">
+      <c r="B129" s="6">
+        <v>100</v>
+      </c>
+      <c r="C129" s="7">
         <v>113100950</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="9">
         <v>1821790</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="5">
         <f t="shared" si="3"/>
         <v>1.6107645426497303</v>
       </c>
@@ -4797,19 +4794,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B130" s="3">
-        <v>100</v>
-      </c>
-      <c r="C130" s="5">
+        <v>214</v>
+      </c>
+      <c r="B130" s="6">
+        <v>100</v>
+      </c>
+      <c r="C130" s="7">
         <v>36981559</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="8">
         <v>334752</v>
       </c>
-      <c r="E130" s="10">
-        <f t="shared" ref="E130:E161" si="4">D130/C130*100</f>
+      <c r="E130" s="5">
+        <f t="shared" ref="E130:E160" si="4">D130/C130*100</f>
         <v>0.90518628487241437</v>
       </c>
       <c r="F130">
@@ -4826,16 +4823,16 @@
       <c r="A131" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B131" s="3">
-        <v>100</v>
-      </c>
-      <c r="C131" s="5">
+      <c r="B131" s="6">
+        <v>100</v>
+      </c>
+      <c r="C131" s="7">
         <v>10361831</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="9">
         <v>77859</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="5">
         <f t="shared" si="4"/>
         <v>0.75140194816919903</v>
       </c>
@@ -4853,16 +4850,16 @@
       <c r="A132" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B132" s="3">
-        <v>100</v>
-      </c>
-      <c r="C132" s="5">
+      <c r="B132" s="6">
+        <v>100</v>
+      </c>
+      <c r="C132" s="7">
         <v>2504910</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="9">
         <v>26896</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E132" s="5">
         <f t="shared" si="4"/>
         <v>1.0737311919390318</v>
       </c>
@@ -4880,16 +4877,16 @@
       <c r="A133" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B133" s="3">
-        <v>100</v>
-      </c>
-      <c r="C133" s="5">
+      <c r="B133" s="6">
+        <v>100</v>
+      </c>
+      <c r="C133" s="7">
         <v>19122059</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="9">
         <v>187162</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="5">
         <f t="shared" si="4"/>
         <v>0.97877535049965059</v>
       </c>
@@ -4907,16 +4904,16 @@
       <c r="A134" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B134" s="3">
-        <v>100</v>
-      </c>
-      <c r="C134" s="5">
+      <c r="B134" s="6">
+        <v>100</v>
+      </c>
+      <c r="C134" s="7">
         <v>144746762</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="8">
         <v>1421809</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="5">
         <f t="shared" si="4"/>
         <v>0.98227344111504211</v>
       </c>
@@ -4934,16 +4931,16 @@
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B135" s="3">
-        <v>100</v>
-      </c>
-      <c r="C135" s="5">
+      <c r="B135" s="6">
+        <v>100</v>
+      </c>
+      <c r="C135" s="7">
         <v>13355260</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="9">
         <v>392497</v>
       </c>
-      <c r="E135" s="10">
+      <c r="E135" s="5">
         <f t="shared" si="4"/>
         <v>2.9388944880144603</v>
       </c>
@@ -4961,16 +4958,16 @@
       <c r="A136" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B136" s="3">
-        <v>100</v>
-      </c>
-      <c r="C136" s="5">
+      <c r="B136" s="6">
+        <v>100</v>
+      </c>
+      <c r="C136" s="7">
         <v>213779</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="9">
         <v>5749</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="5">
         <f t="shared" si="4"/>
         <v>2.6892257892496456</v>
       </c>
@@ -4988,16 +4985,16 @@
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B137" s="3">
-        <v>100</v>
-      </c>
-      <c r="C137" s="5">
+      <c r="B137" s="6">
+        <v>100</v>
+      </c>
+      <c r="C137" s="7">
         <v>34252</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="8">
         <v>212</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="5">
         <f t="shared" si="4"/>
         <v>0.61894195959360032</v>
       </c>
@@ -5015,16 +5012,16 @@
       <c r="A138" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B138" s="3">
-        <v>100</v>
-      </c>
-      <c r="C138" s="5">
+      <c r="B138" s="6">
+        <v>100</v>
+      </c>
+      <c r="C138" s="7">
         <v>221961</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="9">
         <v>6330</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="5">
         <f t="shared" si="4"/>
         <v>2.8518523524402934</v>
       </c>
@@ -5042,16 +5039,16 @@
       <c r="A139" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B139" s="3">
-        <v>100</v>
-      </c>
-      <c r="C139" s="5">
+      <c r="B139" s="6">
+        <v>100</v>
+      </c>
+      <c r="C139" s="7">
         <v>30784383</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="8">
         <v>498172</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="5">
         <f t="shared" si="4"/>
         <v>1.6182620908790017</v>
       </c>
@@ -5069,16 +5066,16 @@
       <c r="A140" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B140" s="3">
-        <v>100</v>
-      </c>
-      <c r="C140" s="5">
+      <c r="B140" s="6">
+        <v>100</v>
+      </c>
+      <c r="C140" s="7">
         <v>17220867</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D140" s="9">
         <v>511625</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="5">
         <f t="shared" si="4"/>
         <v>2.9709595922202992</v>
       </c>
@@ -5096,16 +5093,16 @@
       <c r="A141" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B141" s="3">
-        <v>100</v>
-      </c>
-      <c r="C141" s="5">
+      <c r="B141" s="6">
+        <v>100</v>
+      </c>
+      <c r="C141" s="7">
         <v>6834326</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="8">
         <v>62470</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="5">
         <f t="shared" si="4"/>
         <v>0.91406233767601952</v>
       </c>
@@ -5123,16 +5120,16 @@
       <c r="A142" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B142" s="3">
-        <v>100</v>
-      </c>
-      <c r="C142" s="5">
+      <c r="B142" s="6">
+        <v>100</v>
+      </c>
+      <c r="C142" s="7">
         <v>99258</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="9">
         <v>1764</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="5">
         <f t="shared" si="4"/>
         <v>1.7771867255032339</v>
       </c>
@@ -5150,16 +5147,16 @@
       <c r="A143" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B143" s="3">
-        <v>100</v>
-      </c>
-      <c r="C143" s="5">
+      <c r="B143" s="6">
+        <v>100</v>
+      </c>
+      <c r="C143" s="7">
         <v>8094602</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="8">
         <v>256143</v>
       </c>
-      <c r="E143" s="10">
+      <c r="E143" s="5">
         <f t="shared" si="4"/>
         <v>3.1643680566382386</v>
       </c>
@@ -5177,16 +5174,16 @@
       <c r="A144" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B144" s="3">
-        <v>100</v>
-      </c>
-      <c r="C144" s="5">
+      <c r="B144" s="6">
+        <v>100</v>
+      </c>
+      <c r="C144" s="7">
         <v>5453566</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D144" s="9">
         <v>45626</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E144" s="5">
         <f t="shared" si="4"/>
         <v>0.83662689696979919</v>
       </c>
@@ -5204,16 +5201,16 @@
       <c r="A145" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B145" s="3">
-        <v>100</v>
-      </c>
-      <c r="C145" s="5">
+      <c r="B145" s="6">
+        <v>100</v>
+      </c>
+      <c r="C145" s="7">
         <v>5447247</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D145" s="9">
         <v>56781</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E145" s="5">
         <f t="shared" si="4"/>
         <v>1.0423797562328272</v>
       </c>
@@ -5231,16 +5228,16 @@
       <c r="A146" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B146" s="3">
-        <v>100</v>
-      </c>
-      <c r="C146" s="5">
+      <c r="B146" s="6">
+        <v>100</v>
+      </c>
+      <c r="C146" s="7">
         <v>2108079</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="8">
         <v>19399</v>
       </c>
-      <c r="E146" s="10">
+      <c r="E146" s="5">
         <f t="shared" si="4"/>
         <v>0.92022168049679354</v>
       </c>
@@ -5258,16 +5255,16 @@
       <c r="A147" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B147" s="3">
-        <v>100</v>
-      </c>
-      <c r="C147" s="5">
+      <c r="B147" s="6">
+        <v>100</v>
+      </c>
+      <c r="C147" s="7">
         <v>762591</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="9">
         <v>21123</v>
       </c>
-      <c r="E147" s="10">
+      <c r="E147" s="5">
         <f t="shared" si="4"/>
         <v>2.7698989366514946</v>
       </c>
@@ -5285,16 +5282,16 @@
       <c r="A148" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B148" s="3">
-        <v>100</v>
-      </c>
-      <c r="C148" s="5">
+      <c r="B148" s="6">
+        <v>100</v>
+      </c>
+      <c r="C148" s="7">
         <v>61502603</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="9">
         <v>1190312</v>
       </c>
-      <c r="E148" s="10">
+      <c r="E148" s="5">
         <f t="shared" si="4"/>
         <v>1.935384751113705</v>
       </c>
@@ -5312,16 +5309,16 @@
       <c r="A149" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B149" s="3">
-        <v>100</v>
-      </c>
-      <c r="C149" s="5">
+      <c r="B149" s="6">
+        <v>100</v>
+      </c>
+      <c r="C149" s="7">
         <v>10865780</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="9">
         <v>322632</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="5">
         <f t="shared" si="4"/>
         <v>2.9692484110666699</v>
       </c>
@@ -5339,16 +5336,16 @@
       <c r="A150" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B150" s="3">
-        <v>100</v>
-      </c>
-      <c r="C150" s="5">
+      <c r="B150" s="6">
+        <v>100</v>
+      </c>
+      <c r="C150" s="7">
         <v>47415794</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="8">
         <v>340310</v>
       </c>
-      <c r="E150" s="10">
+      <c r="E150" s="5">
         <f t="shared" si="4"/>
         <v>0.71771443920141886</v>
       </c>
@@ -5366,16 +5363,16 @@
       <c r="A151" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B151" s="3">
-        <v>100</v>
-      </c>
-      <c r="C151" s="5">
+      <c r="B151" s="6">
+        <v>100</v>
+      </c>
+      <c r="C151" s="7">
         <v>22156000</v>
       </c>
-      <c r="D151" s="8">
+      <c r="D151" s="9">
         <v>328525</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="5">
         <f t="shared" si="4"/>
         <v>1.4827811879400614</v>
       </c>
@@ -5393,16 +5390,16 @@
       <c r="A152" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B152" s="3">
-        <v>100</v>
-      </c>
-      <c r="C152" s="5">
+      <c r="B152" s="6">
+        <v>100</v>
+      </c>
+      <c r="C152" s="7">
         <v>46763</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="8">
         <v>574</v>
       </c>
-      <c r="E152" s="10">
+      <c r="E152" s="5">
         <f t="shared" si="4"/>
         <v>1.2274661591429121</v>
       </c>
@@ -5420,16 +5417,16 @@
       <c r="A153" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B153" s="3">
-        <v>100</v>
-      </c>
-      <c r="C153" s="5">
+      <c r="B153" s="6">
+        <v>100</v>
+      </c>
+      <c r="C153" s="7">
         <v>178522</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="9">
         <v>2066</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="5">
         <f t="shared" si="4"/>
         <v>1.1572803351967824</v>
       </c>
@@ -5447,16 +5444,16 @@
       <c r="A154" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B154" s="3">
-        <v>100</v>
-      </c>
-      <c r="C154" s="5">
+      <c r="B154" s="6">
+        <v>100</v>
+      </c>
+      <c r="C154" s="7">
         <v>102841</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="8">
         <v>1300</v>
       </c>
-      <c r="E154" s="10">
+      <c r="E154" s="5">
         <f t="shared" si="4"/>
         <v>1.2640872803648351</v>
       </c>
@@ -5471,19 +5468,19 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B155" s="3">
-        <v>100</v>
-      </c>
-      <c r="C155" s="5">
+      <c r="B155" s="6">
+        <v>100</v>
+      </c>
+      <c r="C155" s="7">
         <v>48066924</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155" s="8">
         <v>1630110</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="5">
         <f t="shared" si="4"/>
         <v>3.391334132385921</v>
       </c>
@@ -5501,16 +5498,16 @@
       <c r="A156" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B156" s="3">
-        <v>100</v>
-      </c>
-      <c r="C156" s="5">
+      <c r="B156" s="6">
+        <v>100</v>
+      </c>
+      <c r="C156" s="7">
         <v>617896</v>
       </c>
-      <c r="D156" s="8">
+      <c r="D156" s="9">
         <v>10861</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E156" s="5">
         <f t="shared" si="4"/>
         <v>1.7577391664616699</v>
       </c>
@@ -5528,16 +5525,16 @@
       <c r="A157" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B157" s="3">
-        <v>100</v>
-      </c>
-      <c r="C157" s="5">
+      <c r="B157" s="6">
+        <v>100</v>
+      </c>
+      <c r="C157" s="7">
         <v>10415811</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="8">
         <v>113236</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="5">
         <f t="shared" si="4"/>
         <v>1.0871549032523729</v>
       </c>
@@ -5555,16 +5552,16 @@
       <c r="A158" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="3">
-        <v>100</v>
-      </c>
-      <c r="C158" s="5">
+      <c r="B158" s="6">
+        <v>100</v>
+      </c>
+      <c r="C158" s="7">
         <v>8704546</v>
       </c>
-      <c r="D158" s="8">
+      <c r="D158" s="9">
         <v>89352</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="5">
         <f t="shared" si="4"/>
         <v>1.0264981080001185</v>
       </c>
@@ -5582,16 +5579,16 @@
       <c r="A159" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B159" s="3">
-        <v>100</v>
-      </c>
-      <c r="C159" s="5">
+      <c r="B159" s="6">
+        <v>100</v>
+      </c>
+      <c r="C159" s="7">
         <v>21628839</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D159" s="8">
         <v>457916</v>
       </c>
-      <c r="E159" s="10">
+      <c r="E159" s="5">
         <f t="shared" si="4"/>
         <v>2.1171547857931716</v>
       </c>
@@ -5609,16 +5606,16 @@
       <c r="A160" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B160" s="3">
-        <v>100</v>
-      </c>
-      <c r="C160" s="5">
+      <c r="B160" s="6">
+        <v>100</v>
+      </c>
+      <c r="C160" s="7">
         <v>9966908</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D160" s="8">
         <v>276523</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="5">
         <f t="shared" si="4"/>
         <v>2.7744110811497404</v>
       </c>
@@ -5633,17 +5630,17 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B161" s="3">
-        <v>100</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="8">
+      <c r="B161" s="6">
+        <v>100</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="9">
         <v>2262827</v>
       </c>
-      <c r="E161" s="10">
+      <c r="E161" s="5">
         <v>3.6</v>
       </c>
       <c r="F161">
@@ -5660,16 +5657,16 @@
       <c r="A162" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B162" s="3">
-        <v>100</v>
-      </c>
-      <c r="C162" s="5">
+      <c r="B162" s="6">
+        <v>100</v>
+      </c>
+      <c r="C162" s="7">
         <v>71727332</v>
       </c>
-      <c r="D162" s="7">
+      <c r="D162" s="8">
         <v>612870</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="5">
         <f t="shared" ref="E162:E181" si="5">D162/C162*100</f>
         <v>0.85444416083955277</v>
       </c>
@@ -5687,16 +5684,16 @@
       <c r="A163" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B163" s="3">
-        <v>100</v>
-      </c>
-      <c r="C163" s="5">
+      <c r="B163" s="6">
+        <v>100</v>
+      </c>
+      <c r="C163" s="7">
         <v>8878379</v>
       </c>
-      <c r="D163" s="8">
+      <c r="D163" s="9">
         <v>284243</v>
       </c>
-      <c r="E163" s="10">
+      <c r="E163" s="5">
         <f t="shared" si="5"/>
         <v>3.2015191061341266</v>
       </c>
@@ -5714,16 +5711,16 @@
       <c r="A164" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="3">
-        <v>100</v>
-      </c>
-      <c r="C164" s="5">
+      <c r="B164" s="6">
+        <v>100</v>
+      </c>
+      <c r="C164" s="7">
         <v>105490</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D164" s="9">
         <v>2480</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="5">
         <f t="shared" si="5"/>
         <v>2.3509337377950517</v>
       </c>
@@ -5739,18 +5736,18 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B165" s="3">
-        <v>100</v>
-      </c>
-      <c r="C165" s="5">
+        <v>215</v>
+      </c>
+      <c r="B165" s="6">
+        <v>100</v>
+      </c>
+      <c r="C165" s="7">
         <v>1367558</v>
       </c>
-      <c r="D165" s="7">
+      <c r="D165" s="8">
         <v>16797</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E165" s="5">
         <f t="shared" si="5"/>
         <v>1.2282477233141118</v>
       </c>
@@ -5764,18 +5761,18 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B166" s="3">
-        <v>100</v>
-      </c>
-      <c r="C166" s="5">
+        <v>216</v>
+      </c>
+      <c r="B166" s="6">
+        <v>100</v>
+      </c>
+      <c r="C166" s="7">
         <v>12048622</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D166" s="9">
         <v>168668</v>
       </c>
-      <c r="E166" s="10">
+      <c r="E166" s="5">
         <f t="shared" si="5"/>
         <v>1.3998945273575683</v>
       </c>
@@ -5791,18 +5788,18 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B167" s="3">
-        <v>100</v>
-      </c>
-      <c r="C167" s="5">
+        <v>217</v>
+      </c>
+      <c r="B167" s="6">
+        <v>100</v>
+      </c>
+      <c r="C167" s="7">
         <v>84147318</v>
       </c>
-      <c r="D167" s="7">
+      <c r="D167" s="8">
         <v>1142982</v>
       </c>
-      <c r="E167" s="10">
+      <c r="E167" s="5">
         <f t="shared" si="5"/>
         <v>1.3583106712919835</v>
       </c>
@@ -5820,16 +5817,16 @@
       <c r="A168" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B168" s="3">
-        <v>100</v>
-      </c>
-      <c r="C168" s="5">
+      <c r="B168" s="6">
+        <v>100</v>
+      </c>
+      <c r="C168" s="7">
         <v>7092043</v>
       </c>
-      <c r="D168" s="8">
+      <c r="D168" s="9">
         <v>165586</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E168" s="5">
         <f t="shared" si="5"/>
         <v>2.3348138188107432</v>
       </c>
@@ -5847,16 +5844,16 @@
       <c r="A169" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B169" s="3">
-        <v>100</v>
-      </c>
-      <c r="C169" s="5">
+      <c r="B169" s="6">
+        <v>100</v>
+      </c>
+      <c r="C169" s="7">
         <v>45910930</v>
       </c>
-      <c r="D169" s="7">
+      <c r="D169" s="8">
         <v>1668475</v>
       </c>
-      <c r="E169" s="10">
+      <c r="E169" s="5">
         <f t="shared" si="5"/>
         <v>3.6341563980516192</v>
       </c>
@@ -5874,16 +5871,16 @@
       <c r="A170" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B170" s="3">
-        <v>100</v>
-      </c>
-      <c r="C170" s="5">
+      <c r="B170" s="6">
+        <v>100</v>
+      </c>
+      <c r="C170" s="7">
         <v>44298640</v>
       </c>
-      <c r="D170" s="8">
+      <c r="D170" s="9">
         <v>309089</v>
       </c>
-      <c r="E170" s="10">
+      <c r="E170" s="5">
         <f t="shared" si="5"/>
         <v>0.69773925339468656</v>
       </c>
@@ -5901,16 +5898,16 @@
       <c r="A171" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B171" s="3">
-        <v>100</v>
-      </c>
-      <c r="C171" s="5">
+      <c r="B171" s="6">
+        <v>100</v>
+      </c>
+      <c r="C171" s="7">
         <v>9575152</v>
       </c>
-      <c r="D171" s="7">
+      <c r="D171" s="8">
         <v>90831</v>
       </c>
-      <c r="E171" s="10">
+      <c r="E171" s="5">
         <f t="shared" si="5"/>
         <v>0.94861157295466436</v>
       </c>
@@ -5928,16 +5925,16 @@
       <c r="A172" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B172" s="3">
-        <v>100</v>
-      </c>
-      <c r="C172" s="5">
+      <c r="B172" s="6">
+        <v>100</v>
+      </c>
+      <c r="C172" s="7">
         <v>67026292</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="9">
         <v>693027</v>
       </c>
-      <c r="E172" s="10">
+      <c r="E172" s="5">
         <f t="shared" si="5"/>
         <v>1.0339629111513433</v>
       </c>
@@ -5955,16 +5952,16 @@
       <c r="A173" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B173" s="3">
-        <v>100</v>
-      </c>
-      <c r="C173" s="5">
+      <c r="B173" s="6">
+        <v>100</v>
+      </c>
+      <c r="C173" s="7">
         <v>332048977</v>
       </c>
-      <c r="D173" s="7">
+      <c r="D173" s="8">
         <v>3681202</v>
       </c>
-      <c r="E173" s="10">
+      <c r="E173" s="5">
         <f t="shared" si="5"/>
         <v>1.10863223650287</v>
       </c>
@@ -5982,16 +5979,16 @@
       <c r="A174" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B174" s="3">
-        <v>100</v>
-      </c>
-      <c r="C174" s="5">
+      <c r="B174" s="6">
+        <v>100</v>
+      </c>
+      <c r="C174" s="7">
         <v>3396695</v>
       </c>
-      <c r="D174" s="7">
+      <c r="D174" s="8">
         <v>34209</v>
       </c>
-      <c r="E174" s="10">
+      <c r="E174" s="5">
         <f t="shared" si="5"/>
         <v>1.0071260445815713</v>
       </c>
@@ -6009,16 +6006,16 @@
       <c r="A175" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B175" s="3">
-        <v>100</v>
-      </c>
-      <c r="C175" s="5">
+      <c r="B175" s="6">
+        <v>100</v>
+      </c>
+      <c r="C175" s="7">
         <v>34243696</v>
       </c>
-      <c r="D175" s="8">
+      <c r="D175" s="9">
         <v>905756</v>
       </c>
-      <c r="E175" s="10">
+      <c r="E175" s="5">
         <f t="shared" si="5"/>
         <v>2.6450299056503717</v>
       </c>
@@ -6036,16 +6033,16 @@
       <c r="A176" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B176" s="3">
-        <v>100</v>
-      </c>
-      <c r="C176" s="5">
+      <c r="B176" s="6">
+        <v>100</v>
+      </c>
+      <c r="C176" s="7">
         <v>305868</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="8">
         <v>8972</v>
       </c>
-      <c r="E176" s="10">
+      <c r="E176" s="5">
         <f t="shared" si="5"/>
         <v>2.9332914852158445</v>
       </c>
@@ -6063,16 +6060,16 @@
       <c r="A177" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B177" s="3">
-        <v>100</v>
-      </c>
-      <c r="C177" s="5">
+      <c r="B177" s="6">
+        <v>100</v>
+      </c>
+      <c r="C177" s="7">
         <v>28237826</v>
       </c>
-      <c r="D177" s="7">
+      <c r="D177" s="8">
         <v>429761</v>
       </c>
-      <c r="E177" s="10">
+      <c r="E177" s="5">
         <f t="shared" si="5"/>
         <v>1.5219337352670139</v>
       </c>
@@ -6090,16 +6087,16 @@
       <c r="A178" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B178" s="3">
-        <v>100</v>
-      </c>
-      <c r="C178" s="5">
+      <c r="B178" s="6">
+        <v>100</v>
+      </c>
+      <c r="C178" s="7">
         <v>98935098</v>
       </c>
-      <c r="D178" s="8">
+      <c r="D178" s="9">
         <v>1457843</v>
       </c>
-      <c r="E178" s="10">
+      <c r="E178" s="5">
         <f t="shared" si="5"/>
         <v>1.4735347004962789</v>
       </c>
@@ -6117,16 +6114,16 @@
       <c r="A179" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B179" s="3">
-        <v>100</v>
-      </c>
-      <c r="C179" s="5">
+      <c r="B179" s="6">
+        <v>100</v>
+      </c>
+      <c r="C179" s="7">
         <v>37140230</v>
       </c>
-      <c r="D179" s="8">
+      <c r="D179" s="9">
         <v>1324728</v>
       </c>
-      <c r="E179" s="10">
+      <c r="E179" s="5">
         <f t="shared" si="5"/>
         <v>3.5668276690801326</v>
       </c>
@@ -6141,19 +6138,19 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B180" s="3">
-        <v>100</v>
-      </c>
-      <c r="C180" s="5">
+      <c r="B180" s="6">
+        <v>100</v>
+      </c>
+      <c r="C180" s="7">
         <v>19603607</v>
       </c>
-      <c r="D180" s="7">
+      <c r="D180" s="8">
         <v>665154</v>
       </c>
-      <c r="E180" s="10">
+      <c r="E180" s="5">
         <f t="shared" si="5"/>
         <v>3.3930184378823753</v>
       </c>
@@ -6168,19 +6165,19 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B181" s="3">
-        <v>100</v>
-      </c>
-      <c r="C181" s="5">
+      <c r="B181" s="6">
+        <v>100</v>
+      </c>
+      <c r="C181" s="7">
         <v>15797210</v>
       </c>
-      <c r="D181" s="8">
+      <c r="D181" s="9">
         <v>488642</v>
       </c>
-      <c r="E181" s="10">
+      <c r="E181" s="5">
         <f t="shared" si="5"/>
         <v>3.0932170933981382</v>
       </c>
